--- a/biology/Botanique/Vanoverberghia/Vanoverberghia.xlsx
+++ b/biology/Botanique/Vanoverberghia/Vanoverberghia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanoverberghia est un genre de deux espèces de plantes herbacées de la famille des Zingiberaceae qui poussent l'une à Taïwan (Ile de Lan Yü) et l'autre aux Philippines. Il a été nommé d'après Morice Vanoverbergh (1885-1982), un prêtre missionnaire catholique qui vécut aux Philippines, et fut aussi anthropologue et linguiste.
-La première description du genre Scaphochlamys a été faite en 1912 par Elmer Drew Merrill[1], décrivant Vanoverberghia sepulchrei.
-Une deuxième espèce fut ajoutée au genre en 2000 après la publication de Vanoverberghia sasakiana par Hidenobu Funakashi et Hiroyoshi Ohashi[2].
+La première description du genre Scaphochlamys a été faite en 1912 par Elmer Drew Merrill, décrivant Vanoverberghia sepulchrei.
+Une deuxième espèce fut ajoutée au genre en 2000 après la publication de Vanoverberghia sasakiana par Hidenobu Funakashi et Hiroyoshi Ohashi.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 sept 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 sept 2011) :
 Vanoverberghia sasakiana H.Funak. &amp; H.Ohashi, (2000). Taïwan
 Vanoverberghia sepulchrei Merr., (1912).  Philippines
-Selon NCBI  (19 Sep 2011)[4] :
+Selon NCBI  (19 Sep 2011) :
 Vanoverberghia sepulchrei</t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 sept 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 sept 2011) :
 Vanoverberghia diversifolia Elmer, (1915)= Alpinia diversifolia (Elmer) Elmer, (1919).</t>
         </is>
       </c>
